--- a/WebContent/user_cheng/熱門商品/熱門商品對照表.xlsx
+++ b/WebContent/user_cheng/熱門商品/熱門商品對照表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\moutain\MountainExploer.com\WebContent\images\熱門商品\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\moutain\MountainExploer.com\WebContent\user_cheng\熱門商品\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>http://localhost:8080/MountainExploer.com/shop/productInfoEntry?no=6000050</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>http://localhost:8080/MountainExploer.com/shop/productInfoEntry?no=6001051</t>
+  </si>
+  <si>
+    <t>Zamberlan 輕量中筒健行鞋 棕 325 CORNELL LITE GTX 0325PM</t>
+  </si>
+  <si>
+    <t>熱門商品9</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/MountainExploer.com/shop/productInfoEntry?no=6000387</t>
   </si>
 </sst>
 </file>
@@ -440,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -552,6 +561,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
